--- a/data/raw/thirdpostbatch7.xlsx
+++ b/data/raw/thirdpostbatch7.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="491">
   <si>
     <t>postCategory</t>
   </si>
@@ -134,7 +134,7 @@
     <t>3103268146</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;Zen Massage&lt;/b&gt; Therapy today!!! Experience another world of relaxation while you indulge in massage bliss. Trained in Ninja-like massage style techniques that help even the toughest Strains, Sprains, and TENSIONS `` GO AWAY. `` Amazing Asians and Latinas! Beautiful Lady Therapists who are gorgeous and up for the task. No man hands but strong enough to break even the toughest tensions.    #1 RATED Place ((( 'ZEN' ~ Massage ~ )))  Address: 2383 Lomita Blvd, Lomita, CA 90717  Phone: (310) 326-8146  Hours: Open today · 9AM–9PM &lt;i&gt;&lt;/i&gt; </t>
+    <t xml:space="preserve">  Zen Massage  Therapy today!!! Experience another world of relaxation while you indulge in massage bliss. Trained in Ninja-like massage style techniques that help even the toughest Strains, Sprains, and TENSIONS `` GO AWAY. `` Amazing Asians and Latinas! Beautiful Lady Therapists who are gorgeous and up for the task. No man hands but strong enough to break even the toughest tensions.    #1 RATED Place ((( 'ZEN' ~ Massage ~ )))  Address: 2383 Lomita Blvd, Lomita, CA 90717  Phone: (310) 326-8146  Hours: Open today · 9AM–9PM    </t>
   </si>
   <si>
     <t>1007</t>
@@ -167,7 +167,7 @@
     <t>6264608333</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;/b&gt; Call now &lt;u&gt;&lt;b&gt;626-460-8333&lt;/b&gt;&lt;/u&gt;   &lt;b&gt;754 N Lake Ave Pasadena&lt;/b&gt;    ✶ Very Large Spa - 7 Massage Rooms!  ✶ Never Rushed  ✶ Customer ALWAYS gets complete time they paid for  ✶ We have full-time manager  ✶ Girls never Interrupt massage  ✶ Girls don’t answer phone during massage  ✶ Girls don’t come out of room and interrupt massage  ✶ We are Open Early 9am and Open late  ✶ Asian Girls Trained to please  ✶ You Can Choose the Girl  ✶ No Old Ladies Here  ✶ We Just remodel on September 1st  ✶ We added more rooms because so many customers!!  ✶ Very Clean Upscale Facilities     &lt;b&gt;We are Close By:&lt;/b&gt;   ✶ 5 Minutes from Altadena  ✶ 10 Minutes from La Canada  ✶ 15 Minutes from Burbank  ✶ 12 Minutes from Glendale  ✶ 12 Minutes from Sierra Madre  ✶ 12 Minutes from Alhambra  ✶ 15 Minutes from San Marino  ✶ 15 Minutes from Arcadia  ✶ 15 Minutes from La Crescenta  ✶ 2 Minutes from Lake Ave Exit 210</t>
+    <t xml:space="preserve">    Call now   626-460-8333      754 N Lake Ave Pasadena     ✶ Very Large Spa - 7 Massage Rooms!  ✶ Never Rushed  ✶ Customer ALWAYS gets complete time they paid for  ✶ We have full-time manager  ✶ Girls never Interrupt massage  ✶ Girls don’t answer phone during massage  ✶ Girls don’t come out of room and interrupt massage  ✶ We are Open Early 9am and Open late  ✶ Asian Girls Trained to please  ✶ You Can Choose the Girl  ✶ No Old Ladies Here  ✶ We Just remodel on September 1st  ✶ We added more rooms because so many customers!!  ✶ Very Clean Upscale Facilities      We are Close By:    ✶ 5 Minutes from Altadena  ✶ 10 Minutes from La Canada  ✶ 15 Minutes from Burbank  ✶ 12 Minutes from Glendale  ✶ 12 Minutes from Sierra Madre  ✶ 12 Minutes from Alhambra  ✶ 15 Minutes from San Marino  ✶ 15 Minutes from Arcadia  ✶ 15 Minutes from La Crescenta  ✶ 2 Minutes from Lake Ave Exit 210</t>
   </si>
   <si>
     <t>811</t>
@@ -221,7 +221,7 @@
     <t>3105133230</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt;&lt;div style="background-image:url(http://imageshack.com/a/img924/5882/xo5kAr.gif )"&gt; &lt;/div&gt; &lt;center&gt; &lt;div style="background-image:url(http://imageshack.com/a/img924/5882/xo5kAr.gif )"&gt;&lt;center&gt; &lt;center&gt; &lt;img border="0" src="https://i.imgur.com/DVUVtBU.gif"/&gt;&lt;img src=""/&gt;&lt;center&gt; &lt;b&gt;&lt;font color="white" size="5"&gt;🎆🎆▃▃ DREAM SPA ▃▃🎆🎆 &lt;font color="white" size="4"&gt;You Won't Find a Better INTERNATIONAL Staff Anywhere &lt;font color="fuchsia" size="5"&gt;🔶 310-513-3230 🔶&lt;hr/&gt;&lt;font color="white" size="4"&gt;📌 WE HAVE TOP QUALITY CHOICE ‼️&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/b&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/div&gt;&lt;/center&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt;&lt;div style="background-image:url(http://imageshack.com/a/img924/5882/xo5kAr.gif )"&gt; &lt;/div&gt;&lt;center&gt; &lt;div style="background-image:url(http://imageshack.com/a/img924/5882/xo5kAr.gif )"&gt;&lt;center&gt; &lt;center&gt; &lt;center&gt;  &lt;font color="white" size="5"&gt;🎆🎆▃▃ DREAM SPA ▃▃🎆🎆 &lt;font color="white" size="4"&gt;You Won't Find a Better INTERNATIONAL Staff Anywhere &lt;font color="fuchsia" size="5"&gt;🔶 310-513-3230 🔶&lt;hr/&gt;&lt;font color="white" size="4"&gt;📌 WE HAVE TOP QUALITY CHOICE ‼️&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt; &lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/div&gt;&lt;/center&gt;&lt;/center&gt;</t>
   </si>
   <si>
     <t>💟💟💟◥◣💟💟💟◥◣ 💟💟💟◥◣ 💟💟💟◥◣ ——— 🏾⫷⫷⫷ NEW INTERNATIONAL GIRL ⫸⫸⫸ 🏾——— ◥◣💟💟💟◥◣💟💟💟◥◣ 💟💟💟◥◣ 💟💟💟</t>
@@ -236,7 +236,7 @@
     <t>2133811218 1182909 1182960</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;💖💖———— " NEW MANAGER SPECIAL :&lt;a&gt; HOUR $40 &lt;/a&gt;———💖💖 Happy Hour 5 PM - 8 PM &lt;a&gt;💖💖 PINK ONE SPA 💖💖&lt;/a&gt; ★ PRIVATE ROOM! New Decoration ★ NEW MANAGEMENT! ★ ALL NEW AMAZING STAFF! &lt;b&gt;&lt;a&gt;★———— Call ☎-- 213-381-1218--☎ ———★&lt;/a&gt; 3663 West 3rd St. Los Angels, CA 90026 &lt;a href='https://www.google.com/maps?q=W+3rd+St,+Los+Angeles,+CA+90026&amp;amp;hl=en&amp;amp;ie=UTF8&amp;amp;ll=34.071929,-118.290911&amp;amp;spn=0.023355,0.045447&amp;amp;sll=34.069133,-118.296008&amp;amp;sspn=0.011678,0.022724&amp;amp;oq=+W+3rd+St+Los+Angeles,+CA+90026+%E2%80%8E+&amp;amp;hnear=3663+W+3rd+St,+Los+Angeles,+California+90026&amp;amp;t=m&amp;amp;z=15"' target="_blank"&gt;💖———— Map…CLICK ——💖&lt;/a&gt; ‎ Various Massage Techniques. ★———— Open Daily : 11am to 10:30pm / 7 Days a Week ———★ will assure your visit with us is one of TOTAL relaxation! &lt;/b&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  💖💖———— " NEW MANAGER SPECIAL :&lt;a&gt; HOUR $40 &lt;/a&gt;———💖💖 Happy Hour 5 PM - 8 PM &lt;a&gt;💖💖 PINK ONE SPA 💖💖&lt;/a&gt; ★ PRIVATE ROOM! New Decoration ★ NEW MANAGEMENT! ★ ALL NEW AMAZING STAFF!  &lt;a&gt;★———— Call ☎-- 213-381-1218--☎ ———★&lt;/a&gt; 3663 West 3rd St. Los Angels, CA 90026 &lt;a href='https://www.google.com/maps?q=W+3rd+St,+Los+Angeles,+CA+90026&amp;amp;hl=en&amp;amp;ie=UTF8&amp;amp;ll=34.071929,-118.290911&amp;amp;spn=0.023355,0.045447&amp;amp;sll=34.069133,-118.296008&amp;amp;sspn=0.011678,0.022724&amp;amp;oq=+W+3rd+St+Los+Angeles,+CA+90026+%E2%80%8E+&amp;amp;hnear=3663+W+3rd+St,+Los+Angeles,+California+90026&amp;amp;t=m&amp;amp;z=15"' target="_blank"&gt;💖———— Map…CLICK ——💖&lt;/a&gt; ‎ Various Massage Techniques. ★———— Open Daily : 11am to 10:30pm / 7 Days a Week ———★ will assure your visit with us is one of TOTAL relaxation!   </t>
   </si>
   <si>
     <t>954</t>
@@ -254,7 +254,7 @@
     <t>3102483886</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;font color="Red" face="Arial" size="6"&gt;GRAND OPENING &lt;p&gt; ❤ unforgettable massage❤ &lt;p&gt;&lt;font color="Red" face="Arial" size="6"&gt;💕&lt;font color="blue" face="Arial" size="5"&gt;&lt;i&gt; You deserve pamper yourself, we are the best massage in town, &lt;p&gt;we have young and pretty girl with high and quality technique. &lt;p&gt;&lt;font color="Red" face="Arial" size="6"&gt;&lt;font color="Red" face="Arial" size="6"&gt;💕&lt;font color="blue" face="Arial" size="5"&gt;&lt;i&gt; Come enjoy our private room, clean,soft music, magic touch. &lt;p&gt;&lt;font color="Red" face="Arial" size="6"&gt;💕&lt;font color="blue" face="Arial" size="5"&gt;&lt;i&gt; We do combination, hot oil,Swedish,deep tissue. &lt;p&gt;&lt;font color="Red" face="Arial" size="6"&gt;💕 &lt;font color="blue" face="Arial" size="5"&gt;&lt;i&gt; Our pretty and sweet masseuse waiting for you.&lt;p&gt;&lt;font color="Red" face="Arial" size="6"&gt; $50/60min || $40/30min&lt;p&gt;&lt;font color="Blue" face="Arial" size="6"&gt;☏ 310-248-3886 &lt;p&gt;&lt;font color="Red" face="Arial" size="5"&gt;Open 7 days:10:00am - 9:00pm &lt;p&gt;&lt;font color="blue" face="Arial" size="6"&gt;9540 Pico Blvd &lt;p&gt;Los Angeles CA 90035 &lt;/p&gt;&lt;/font&gt;&lt;/p&gt;&lt;/font&gt;&lt;/p&gt;&lt;/font&gt; &lt;/p&gt;&lt;/font&gt;&lt;/p&gt;&lt;/i&gt;&lt;/font&gt;&lt;/font&gt;&lt;/p&gt;&lt;/i&gt;&lt;/font&gt;&lt;/font&gt;&lt;/p&gt;&lt;/i&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/p&gt;&lt;/p&gt;&lt;/i&gt;&lt;/font&gt;&lt;/font&gt;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt; &lt;font color="Red" face="Arial" size="6"&gt;GRAND OPENING &lt;p&gt; ❤ unforgettable massage❤ &lt;p&gt;&lt;font color="Red" face="Arial" size="6"&gt;💕&lt;font color="blue" face="Arial" size="5"&gt;  You deserve pamper yourself, we are the best massage in town, &lt;p&gt;we have young and pretty girl with high and quality technique. &lt;p&gt;&lt;font color="Red" face="Arial" size="6"&gt;&lt;font color="Red" face="Arial" size="6"&gt;💕&lt;font color="blue" face="Arial" size="5"&gt;  Come enjoy our private room, clean,soft music, magic touch. &lt;p&gt;&lt;font color="Red" face="Arial" size="6"&gt;💕&lt;font color="blue" face="Arial" size="5"&gt;  We do combination, hot oil,Swedish,deep tissue. &lt;p&gt;&lt;font color="Red" face="Arial" size="6"&gt;💕 &lt;font color="blue" face="Arial" size="5"&gt;  Our pretty and sweet masseuse waiting for you.&lt;p&gt;&lt;font color="Red" face="Arial" size="6"&gt; $50/60min || $40/30min&lt;p&gt;&lt;font color="Blue" face="Arial" size="6"&gt;☏ 310-248-3886 &lt;p&gt;&lt;font color="Red" face="Arial" size="5"&gt;Open 7 days:10:00am - 9:00pm &lt;p&gt;&lt;font color="blue" face="Arial" size="6"&gt;9540 Pico Blvd &lt;p&gt;Los Angeles CA 90035 &lt;/p&gt;&lt;/font&gt;&lt;/p&gt;&lt;/font&gt;&lt;/p&gt;&lt;/font&gt; &lt;/p&gt;&lt;/font&gt;&lt;/p&gt; &lt;/font&gt;&lt;/font&gt;&lt;/p&gt; &lt;/font&gt;&lt;/font&gt;&lt;/p&gt; &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/p&gt;&lt;/p&gt; &lt;/font&gt;&lt;/font&gt;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt;&lt;/center&gt;</t>
   </si>
   <si>
     <t>1121</t>
@@ -323,7 +323,7 @@
     <t>3102169294</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;big&gt;&lt;ol&gt;&lt;b&gt; &lt;b&gt;&lt;a&gt;📙⬛📙——— SUPER SPA ———📙⬛📙&lt;/a&gt; &lt;font color="#FF0000" size="5"&gt; 9138 S. Sepulveda Blvd, LA CA 90045 (1 block N. of LAX)&lt;/font&gt; &lt;u&gt;🚺——— Dream Inducing Bodywork ———🚺&lt;/u&gt; &lt;a&gt;🍫 : 30 mins massage $35 &lt;/a&gt; 🌹 you'll always meet friendly and well trained Asian staff 🌹 Water Massage / Body Wash / Body Scrub 🌹 Deep Tissue / shiatsu / Swedish / Hot Oil Massage 🚺 STEAM SAUNA 🚺 &lt;b&gt;&lt;a&gt;🌻⬛🌻——— TEL: 310-216-9294 ———🌻⬛🌻&lt;/a&gt; 🌹 Open Daily 10am To 10pm &lt;u&gt;🌹 9138 S. Sepulveda Blvd, LA CA 90045 (1 block N. of LAX) &lt;a href="http://maps.google.com/maps?q=9138+S.+Sepulveda+Blvd,+LA+CA&amp;amp;hl=en&amp;amp;hnear=9138+S+Sepulveda+Blvd,+Los+Angeles,+California+90045&amp;amp;gl=us&amp;amp;t=m&amp;amp;z=16&amp;amp;iwloc=A" target="_blank"&gt;🌻⬛🌻——— Google Map…CLICK ———🌻⬛🌻&lt;/a&gt;&lt;/u&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/ol&gt;&lt;/big&gt;</t>
+    <t xml:space="preserve"> &lt;big&gt;&lt;ol&gt;   &lt;a&gt;📙⬛📙——— SUPER SPA ———📙⬛📙&lt;/a&gt; &lt;font color="#FF0000" size="5"&gt; 9138 S. Sepulveda Blvd, LA CA 90045 (1 block N. of LAX)&lt;/font&gt;  🚺——— Dream Inducing Bodywork ———🚺  &lt;a&gt;🍫 : 30 mins massage $35 &lt;/a&gt; 🌹 you'll always meet friendly and well trained Asian staff 🌹 Water Massage / Body Wash / Body Scrub 🌹 Deep Tissue / shiatsu / Swedish / Hot Oil Massage 🚺 STEAM SAUNA 🚺  &lt;a&gt;🌻⬛🌻——— TEL: 310-216-9294 ———🌻⬛🌻&lt;/a&gt; 🌹 Open Daily 10am To 10pm  🌹 9138 S. Sepulveda Blvd, LA CA 90045 (1 block N. of LAX) &lt;a href="http://maps.google.com/maps?q=9138+S.+Sepulveda+Blvd,+LA+CA&amp;amp;hl=en&amp;amp;hnear=9138+S+Sepulveda+Blvd,+Los+Angeles,+California+90045&amp;amp;gl=us&amp;amp;t=m&amp;amp;z=16&amp;amp;iwloc=A" target="_blank"&gt;🌻⬛🌻——— Google Map…CLICK ———🌻⬛🌻&lt;/a&gt;    &lt;/ol&gt;&lt;/big&gt;</t>
   </si>
   <si>
     <t>🛍⬛⬛⬛⬛🛍 LAX AREA  🛍⬛⬛⬛⬛🛍💚💚💚💚💚💚💚💚 ➰⚫➰💚💚💚💚💚💚💚💚🚺⬛⬛⬛  BIG SPECIAL  🚺⬛⬛⬛   SUPER SPA  🚺⬛⬛⬛</t>
@@ -443,12 +443,15 @@
     <t>3103289777 3109993963</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;center&gt;&lt;font color="red"&gt;&lt;font size="5"&gt;★★★★★ Energy Massage★★★★★&lt;/font&gt; &lt;font color="blue"&gt;&lt;font size="4"&gt;💖💖💖 NEW GIRLS COME ON 12/1 &lt;font size="4"&gt;Elegant and Comfortable Facilities 💖💖💖&lt;/font&gt; &lt;font size="4"&gt;&lt;font color="purple"&gt;† Luxury Spa † Best Value † Shower †&lt;/font&gt; &lt;font size="4"&gt;&lt;font color="red"&gt;Full body massage: $40/60min $60/90mins &lt;font size="4"&gt;💖💖💖 Every customer leaves happy!!💖💖💖 &lt;/font&gt; &lt;font color="purple"&gt;&lt;font size="4"&gt;∫ Renew Your Day ∫ Refresh Your Spirit ∫&lt;/font&gt; &lt;font color="blue"&gt;&lt;font size="4"&gt;&lt;u&gt;1880 W. Carson St. #F Torrance, CA 90501(FREE SHOWER) Call:310-328-9777 (Torrance)&lt;/u&gt; &lt;/font&gt; &lt;font color="red"&gt;&lt;u&gt;4501 Artesia Blvd.,Lawndale,CA 90260 ★(FREE TABLE SHOWER) CALL:310-999-3963 (Lawndale)&lt;/u&gt; &lt;/font&gt; &lt;font color="green"&gt;&lt;font size="4"&gt;you can enjoy your time &lt;font size="4"&gt;Open Everyday 10am-10pm &lt;font color="red"&gt;&lt;font size="4"&gt;Visit Today &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/center&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  &lt;center&gt;&lt;font color="red"&gt;&lt;font size="5"&gt;★★★★★ Energy Massage★★★★★&lt;/font&gt; &lt;font color="blue"&gt;&lt;font size="4"&gt;💖💖💖 NEW GIRLS COME ON 12/1 &lt;font size="4"&gt;Elegant and Comfortable Facilities 💖💖💖&lt;/font&gt; &lt;font size="4"&gt;&lt;font color="purple"&gt;† Luxury Spa † Best Value † Shower †&lt;/font&gt; &lt;font size="4"&gt;&lt;font color="red"&gt;Full body massage: $40/60min $60/90mins &lt;font size="4"&gt;💖💖💖 Every customer leaves happy!!💖💖💖 &lt;/font&gt; &lt;font color="purple"&gt;&lt;font size="4"&gt;∫ Renew Your Day ∫ Refresh Your Spirit ∫&lt;/font&gt; &lt;font color="blue"&gt;&lt;font size="4"&gt; 1880 W. Carson St. #F Torrance, CA 90501(FREE SHOWER) Call:310-328-9777 (Torrance)  &lt;/font&gt; &lt;font color="red"&gt; 4501 Artesia Blvd.,Lawndale,CA 90260 ★(FREE TABLE SHOWER) CALL:310-999-3963 (Lawndale)  &lt;/font&gt; &lt;font color="green"&gt;&lt;font size="4"&gt;you can enjoy your time &lt;font size="4"&gt;Open Everyday 10am-10pm &lt;font color="red"&gt;&lt;font size="4"&gt;Visit Today &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/center&gt; </t>
   </si>
   <si>
     <t>💋💋 💋💋 💋💋NEW&amp;YOUNG; GIRLS💖💋💋💖💖📕📕📕 💖FREE SHOWER▃💋💋 💋💋 CALL US NOW!!!!!!!</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>119012658</t>
   </si>
   <si>
@@ -458,7 +461,7 @@
     <t>3234053898 2138055662</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;Hello gentlemen!!! My name is Lucy. I am 5'5", 103 lbs, 34D-23-34, 22 yrs. 💘 Call Only : 323-405-3898 💘 💘 Text Only : 213-805-5662 💘 &lt;/b&gt;</t>
+    <t xml:space="preserve">  Hello gentlemen!!! My name is Lucy. I am 5'5", 103 lbs, 34D-23-34, 22 yrs. 💘 Call Only : 323-405-3898 💘 💘 Text Only : 213-805-5662 💘  </t>
   </si>
   <si>
     <t>200</t>
@@ -500,7 +503,7 @@
     <t>0357175 7145484952 1418805</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;div style="background-color:white;background-image:url(https://image.freepik.com/free-vector/wavy-shapes-with-red-tones_1035-7175.jpg);border:1px solid black;width:1500px;height:2500px;font-size:18px;"&gt; &lt;div style="background-image:url(http://imgur.com/cgo8uqN.gif)"&gt; &lt;/div&gt; &lt;font color="blue" size="4"&gt; &lt;b&gt; (714) 548-4952 &lt;/b&gt; Call me ! &lt;/font&gt; &lt;font color="purple" size="4"&gt; &lt;b&gt; Hello gentlemen: Take your pick of the most delightful selection of cute providers. We like to pamper and please you because we know you work hard and you deserve to be treated like the special person you are. You have a busy schedule, so there is no time for games and no time for non-sense. You will experience pure pleasure and satisfaction, precisely the kind you want and crave. We are confident that you will love our service, looks, and a true passion for what we do. Just call anytime. We would really love to meet you today ! (714) 548-4952 &lt;/b&gt;&lt;/font&gt; &lt;img alt="" src="http://68.media.tumblr.com/b4b275efb23c65a8b818ca552fc3937c/tumblr_oul7dcwJjf1rdwjilo1_500.gif" style="display: inline-block; vertical-align: top; margin: 0px; width: 50%; height: auto;"/&gt; &lt;/div&gt;    &lt;div style="padding-left:2em;"&gt; • Location: Anaheim 💢💥🔥💢💥🔥💢💥🔥, Los Angeles, Westside &lt;/div&gt;  &lt;div style="padding-left:2em;"&gt; • Post ID: 141880567 losangeles&lt;/br&gt;&lt;/div&gt;  &lt;div data-oid="141880567" id="OtherAdsByThisUser"&gt; &lt;noscript&gt; &lt;/noscript&gt; &lt;/div&gt;  &lt;script type="text/javascript"&gt; &lt;!-- jQuery("#OtherAdsByThisUser").loadOtherAdsByThisUser(); // --&gt; &lt;/script&gt;  &lt;div class="helperLinks" style="margin:2em 0;"&gt; &lt;span style="font-weight:bold;"&gt; &lt;a href="http://posting.losangeles.backpage.com/TherapeuticMassage/classifieds/EmailAd.html?oid=141880567" id="emailThisAd"&gt;email to friend&lt;/a&gt; &lt;/span&gt; &lt;/div&gt; </t>
+    <t xml:space="preserve"> &lt;div style="background-color:white;background-image:url(https://image.freepik.com/free-vector/wavy-shapes-with-red-tones_1035-7175.jpg);border:1px solid black;width:1500px;height:2500px;font-size:18px;"&gt; &lt;div style="background-image:url(http://imgur.com/cgo8uqN.gif)"&gt; &lt;/div&gt; &lt;font color="blue" size="4"&gt;   (714) 548-4952   Call me ! &lt;/font&gt; &lt;font color="purple" size="4"&gt;   Hello gentlemen: Take your pick of the most delightful selection of cute providers. We like to pamper and please you because we know you work hard and you deserve to be treated like the special person you are. You have a busy schedule, so there is no time for games and no time for non-sense. You will experience pure pleasure and satisfaction, precisely the kind you want and crave. We are confident that you will love our service, looks, and a true passion for what we do. Just call anytime. We would really love to meet you today ! (714) 548-4952  &lt;/font&gt; &lt;img alt="" src="http://68.media.tumblr.com/b4b275efb23c65a8b818ca552fc3937c/tumblr_oul7dcwJjf1rdwjilo1_500.gif" style="display: inline-block; vertical-align: top; margin: 0px; width: 50%; height: auto;"/&gt; &lt;/div&gt;    &lt;div style="padding-left:2em;"&gt; • Location: Anaheim 💢💥🔥💢💥🔥💢💥🔥, Los Angeles, Westside &lt;/div&gt;  &lt;div style="padding-left:2em;"&gt; • Post ID: 141880567 losangeles&lt;/br&gt;&lt;/div&gt;  &lt;div data-oid="141880567" id="OtherAdsByThisUser"&gt; &lt;noscript&gt; &lt;/noscript&gt; &lt;/div&gt;  &lt;script type="text/javascript"&gt; &lt;!-- jQuery("#OtherAdsByThisUser").loadOtherAdsByThisUser(); // --&gt; &lt;/script&gt;  &lt;div class="helperLinks" style="margin:2em 0;"&gt; &lt;span style="font-weight:bold;"&gt; &lt;a href="http://posting.losangeles.backpage.com/TherapeuticMassage/classifieds/EmailAd.html?oid=141880567" id="emailThisAd"&gt;email to friend&lt;/a&gt; &lt;/span&gt; &lt;/div&gt; </t>
   </si>
   <si>
     <t>💋💋💋💋   (714)  548-4952  🍎 🍎 🍎 🍎  Cutest Girls  💋💋💋 Satisfying relaxation</t>
@@ -563,7 +566,7 @@
     <t>3103791800</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt;&lt;font color="blue"&gt;&lt;font size="5"&gt;&lt;b&gt;★======== Diamond Massage ==========★ &lt;/b&gt;&lt;/font&gt; &lt;font color="red"&gt;&lt;font size="5"&gt;❀ * Deep Tissue * Shiatsu * Swedish Massage* Hot Stone ❀ *Relax In Our Soothing and Serene Retreat * ❀ *Leave The Stress and Aggravation Behind * &lt;/font&gt; &lt;font color="blue"&gt;&lt;font size="5"&gt;&lt;u&gt;New Owner special price: &lt;/u&gt;&lt;/font&gt; &lt;font color="red"&gt;&lt;font size="6"&gt;&lt;u&gt;First Time Customer get $10 OFF amd FREE Hot Stone &lt;/u&gt;&lt;/font&gt; &lt;font color="blue"&gt;&lt;font size="5"&gt;&lt;u&gt;Call to make appointment &lt;/u&gt;&lt;/font&gt; &lt;font size="4"&gt;&lt;font color="green"&gt;2300 Artesia Blvd #A, Redondo Beach, CA 90278 ☎ (310) 379-1800 ☎ &lt;/font&gt; &lt;font color="green"&gt;OPEN /10:00 AM - 9:30 PM / 7 DAYS Walk-ins and make appointment are welcome &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt;&lt;font color="blue"&gt;&lt;font size="5"&gt; ★======== Diamond Massage ==========★  &lt;/font&gt; &lt;font color="red"&gt;&lt;font size="5"&gt;❀ * Deep Tissue * Shiatsu * Swedish Massage* Hot Stone ❀ *Relax In Our Soothing and Serene Retreat * ❀ *Leave The Stress and Aggravation Behind * &lt;/font&gt; &lt;font color="blue"&gt;&lt;font size="5"&gt; New Owner special price:  &lt;/font&gt; &lt;font color="red"&gt;&lt;font size="6"&gt; First Time Customer get $10 OFF amd FREE Hot Stone  &lt;/font&gt; &lt;font color="blue"&gt;&lt;font size="5"&gt; Call to make appointment  &lt;/font&gt; &lt;font size="4"&gt;&lt;font color="green"&gt;2300 Artesia Blvd #A, Redondo Beach, CA 90278 ☎ (310) 379-1800 ☎ &lt;/font&gt; &lt;font color="green"&gt;OPEN /10:00 AM - 9:30 PM / 7 DAYS Walk-ins and make appointment are welcome &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/center&gt;</t>
   </si>
   <si>
     <t>1106</t>
@@ -581,7 +584,7 @@
     <t>2135597675</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;i&gt; &lt;a&gt;call: 213-559-7675&lt;/a&gt; Hi, Gentlemen, Allow me to satisfy your wildest fantasy! &lt;ul&gt; What I'm going to offer you: &lt;li&gt;Extra Body-slide &lt;li&gt;Hawaii Shower &lt;li&gt;TATAMI Room &lt;/li&gt;&lt;/li&gt;&lt;/li&gt;&lt;/ul&gt; 5'2" ALL NATURAL, Real Nice &amp;amp; EXOTIC sensation I aim to please and LOVE to satisfy... 100% DISCREET AVAILABLE NIGHT &amp;amp; DAY NO RUSH NO FUSS Playful I am charming and elegant lady with a passion for life. Romantic, warm, sensitive companionship. Really Pretty Asia Sweet! Call me &amp;amp; let us meet. &lt;/i&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">    &lt;a&gt;call: 213-559-7675&lt;/a&gt; Hi, Gentlemen, Allow me to satisfy your wildest fantasy! &lt;ul&gt; What I'm going to offer you: &lt;li&gt;Extra Body-slide &lt;li&gt;Hawaii Shower &lt;li&gt;TATAMI Room &lt;/li&gt;&lt;/li&gt;&lt;/li&gt;&lt;/ul&gt; 5'2" ALL NATURAL, Real Nice &amp;amp; EXOTIC sensation I aim to please and LOVE to satisfy... 100% DISCREET AVAILABLE NIGHT &amp;amp; DAY NO RUSH NO FUSS Playful I am charming and elegant lady with a passion for life. Romantic, warm, sensitive companionship. Really Pretty Asia Sweet! Call me &amp;amp; let us meet.   </t>
   </si>
   <si>
     <t>935</t>
@@ -599,7 +602,7 @@
     <t>1372023 2466502 4135717 2138075615</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;img alt="" border="2" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413571706.jpg"/&gt; &lt;i&gt;&lt;font color="green"&gt;&lt;b&gt;▬▬▬💜🔲💚▬▬▬　Pinkull Spa: 213-807-5615 ▬▬▬💜🔲💚▬▬▬&lt;/b&gt;&lt;/font&gt;&lt;/i&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt; &lt;img alt="" border="2" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413571706.jpg"/&gt;  &lt;font color="green"&gt; ▬▬▬💜🔲💚▬▬▬　Pinkull Spa: 213-807-5615 ▬▬▬💜🔲💚▬▬▬ &lt;/font&gt; &lt;/center&gt;</t>
   </si>
   <si>
     <t>🌃🌃🌃🌃🌃🌃🌃🌃 ▬▬▬ 213-807-5615 ▬▬▬🔲🍎🔲▬▬ NEW STAFF ▬▬ 🌃🌃🌃🌃🌃 ▬▬ PINKULL SPA ▬▬🔲🍎🔲▬▬▬▬▬▬▬▬▬▬ 🌃🌃🌃🌃🌃🌃🌃🌃</t>
@@ -629,7 +632,7 @@
     <t>1374866 2474971 4136757 3237378787</t>
   </si>
   <si>
-    <t xml:space="preserve">   &lt;center&gt;&lt;i&gt;&lt;b&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413675761.jpg"/&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413675760.jpg"/&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413675745.jpg"/&gt; &lt;img alt="" border="3" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413675757.jpg"/&gt; &lt;a&gt;Click phone # to call Paradise:&lt;a href="tel:323-737-8787" target="_blank"&gt; 323-737-8787&lt;/a&gt; &lt;/a&gt;&lt;/b&gt;&lt;/i&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve">   &lt;center&gt;   &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413675761.jpg"/&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413675760.jpg"/&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413675745.jpg"/&gt; &lt;img alt="" border="3" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413675757.jpg"/&gt; &lt;a&gt;Click phone # to call Paradise:&lt;a href="tel:323-737-8787" target="_blank"&gt; 323-737-8787&lt;/a&gt; &lt;/a&gt;  &lt;/center&gt;</t>
   </si>
   <si>
     <t>꧁💞꧂ ꧁💞꧂ ꧁ 323-737-8787 ꧂ Paradise....꧁💞꧂ ꧁💞꧂ New Relaxation꧁💞꧂ ꧁💞꧂ ꧁ New Staff ꧂ ꧁ 💞</t>
@@ -656,7 +659,7 @@
     <t>139460187</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;/b&gt; Call now &lt;u&gt;&lt;b&gt;626-460-8333&lt;/b&gt;&lt;/u&gt;   &lt;b&gt;754 N Lake Ave Pasadena&lt;/b&gt;    ✶ Very Large Spa - 7 Massage Rooms!  ✶ Never Rushed  ✶ Customer ALWAYS gets complete time they paid for  ✶ We have full-time manager  ✶ Girls never Interrupt massage  ✶ Girls don’t answer phone during massage  ✶ Girls don’t come out of room and interrupt massage  ✶ We are Open Early 9am and Open late  ✶ Many Repeat Customers!!  ✶ You Can Choose the Girl  ✶ No Old Ladies Here  ✶ We Just remodel on September 1st  ✶ We added more rooms because so many customers!!  ✶ Very Clean Upscale Facilities     &lt;b&gt;We are Close By:&lt;/b&gt;   ✶ 5 Minutes from Altadena  ✶ 10 Minutes from La Canada  ✶ 15 Minutes from Burbank  ✶ 12 Minutes from Glendale  ✶ 12 Minutes from Sierra Madre  ✶ 12 Minutes from Alhambra  ✶ 15 Minutes from San Marino  ✶ 15 Minutes from Arcadia  ✶ 15 Minutes from La Crescenta  ✶ 2 Minutes from Lake Ave Exit 210</t>
+    <t xml:space="preserve">    Call now   626-460-8333      754 N Lake Ave Pasadena     ✶ Very Large Spa - 7 Massage Rooms!  ✶ Never Rushed  ✶ Customer ALWAYS gets complete time they paid for  ✶ We have full-time manager  ✶ Girls never Interrupt massage  ✶ Girls don’t answer phone during massage  ✶ Girls don’t come out of room and interrupt massage  ✶ We are Open Early 9am and Open late  ✶ Many Repeat Customers!!  ✶ You Can Choose the Girl  ✶ No Old Ladies Here  ✶ We Just remodel on September 1st  ✶ We added more rooms because so many customers!!  ✶ Very Clean Upscale Facilities      We are Close By:    ✶ 5 Minutes from Altadena  ✶ 10 Minutes from La Canada  ✶ 15 Minutes from Burbank  ✶ 12 Minutes from Glendale  ✶ 12 Minutes from Sierra Madre  ✶ 12 Minutes from Alhambra  ✶ 15 Minutes from San Marino  ✶ 15 Minutes from Arcadia  ✶ 15 Minutes from La Crescenta  ✶ 2 Minutes from Lake Ave Exit 210</t>
   </si>
   <si>
     <t>✶ ✶ ✶ ✶ SIX CUTE ASIANS Everyday ✶ ✶ ✶ ✶ ✶ LARGEST spa in Pasadena!! ✶ ✶ ✶ ✶ Seven  MASSAGE Rooms!</t>
@@ -668,7 +671,7 @@
     <t>Downtown, GLENDAL, BURBANK, DwnTwn, ALL LA Area♋♋♋, Los Angeles</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;b&gt;100% Real Pix!!!&lt;/b&gt;&lt;/b&gt;    &lt;b&gt;&lt;a&gt;Check out here, Your sexy new busty girls! I'm young sexy girl always love to have some fun. No rushed with me. Call now and Let's meet up.&lt;/a&gt;&lt;/b&gt;  </t>
+    <t xml:space="preserve">   100% Real Pix!!!       &lt;a&gt;Check out here, Your sexy new busty girls! I'm young sexy girl always love to have some fun. No rushed with me. Call now and Let's meet up.&lt;/a&gt;   </t>
   </si>
   <si>
     <t>330</t>
@@ -743,7 +746,7 @@
     <t>[u'150082582', u'93900492']</t>
   </si>
   <si>
-    <t>A Massage 5615 Whittier Blvd #F LA 90022 &lt;font color="Red"&gt;&lt;font size="6"&gt;&lt;b&gt;Present this ads upon arrival to get $5 off&lt;/b&gt;&lt;/font&gt; &lt;/font&gt;</t>
+    <t>A Massage 5615 Whittier Blvd #F LA 90022 &lt;font color="Red"&gt;&lt;font size="6"&gt; Present this ads upon arrival to get $5 off &lt;/font&gt; &lt;/font&gt;</t>
   </si>
   <si>
     <t>❀❀❀Promotion! GET $5 OFF! Welcome to A Massage❀❀❀</t>
@@ -758,7 +761,7 @@
     <t>3105301600</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;i&gt;We'll EARN your repeat business!&lt;/i&gt;  Private Rooms in a quiet location for full relaxation!  Pretty, pleasant, experienced masseuses  Freeway close  Shower available before/after massage  Safe parking at back entrance  Early bird special: $45/hour before 1 PM!  9 AM - 9 PM Daily    MAGICAL TOUCH MASSAGE  1817 Lomita Blvd.  Lomita, CA 90717  (310)530-1600    Come here once and you'll want to come back!    $5 off if you mention this ad! Serving Redondo Beach, Manhattan Beach, Hermosa Beach, Palos Verdes, Harbor City, Long Beach (LBC), Seal Beach, Los Alamitos, as well as Gardena, Torrance, San Pedro, and of course, Lomita</t>
+    <t xml:space="preserve">  We'll EARN your repeat business!   Private Rooms in a quiet location for full relaxation!  Pretty, pleasant, experienced masseuses  Freeway close  Shower available before/after massage  Safe parking at back entrance  Early bird special: $45/hour before 1 PM!  9 AM - 9 PM Daily    MAGICAL TOUCH MASSAGE  1817 Lomita Blvd.  Lomita, CA 90717  (310)530-1600    Come here once and you'll want to come back!    $5 off if you mention this ad! Serving Redondo Beach, Manhattan Beach, Hermosa Beach, Palos Verdes, Harbor City, Long Beach (LBC), Seal Beach, Los Alamitos, as well as Gardena, Torrance, San Pedro, and of course, Lomita</t>
   </si>
   <si>
     <t>Elegant Asian Spa with Friendly Staff 310-530-1600</t>
@@ -785,7 +788,7 @@
     <t>4242540737</t>
   </si>
   <si>
-    <t xml:space="preserve">💎Avalible to all Gentlemen,  💎B2B Full Body Rub  💎Full Service BodyRub  💎Independent &amp;1000% real     &lt;b&gt;60/half 120/full &lt;/b&gt;     &lt;u&gt;(424)254-0737&lt;/u&gt; </t>
+    <t xml:space="preserve">💎Avalible to all Gentlemen,  💎B2B Full Body Rub  💎Full Service BodyRub  💎Independent &amp;1000% real      60/half 120/full        (424)254-0737  </t>
   </si>
   <si>
     <t>💎Elite BBW Doll💎French/Ebony💎Greek Goddess💎BEST BODYRUB💎</t>
@@ -911,7 +914,7 @@
     <t>4243749751</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;a&gt;NO NEED TO LOOK ANY FURTHER! ONE OF BP'S FINEST ASIAN!&lt;/a&gt;&lt;/b&gt;    &lt;u&gt;Gorgeous &amp;amp; Friendly Korean with an hourglass figure &amp;amp; a Great Rack! Outgoing, Friendly, Funny, &amp;amp; Sweet &lt;/u&gt;  &lt;b&gt;&lt;a&gt;THE BEST OF THE BEST!&lt;/a&gt;&lt;/b&gt;    &lt;a&gt;~INCREDIBLE LIPS&lt;/a&gt; ~ &lt;u&gt;100% TRULY Amazing EXPERIENCE!~&lt;/u&gt;    &lt;b&gt;NEVER RUSHED! WILL EXCEED ALL YOUR EXPECTATIONS&lt;/b&gt;    &lt;b&gt;&lt;u&gt;Glendal, Burbank, Downtown &amp;amp; ANYWHERE in LA&lt;/u&gt; &lt;a&gt;Phone: 424-374-9751 &lt;/a&gt; &lt;/b&gt;  &lt;b&gt;&lt;i&gt;OpenMind &amp;amp; MORE&lt;/i&gt;&lt;/b&gt;   </t>
+    <t xml:space="preserve">  &lt;a&gt;NO NEED TO LOOK ANY FURTHER! ONE OF BP'S FINEST ASIAN!&lt;/a&gt;      Gorgeous &amp;amp; Friendly Korean with an hourglass figure &amp;amp; a Great Rack! Outgoing, Friendly, Funny, &amp;amp; Sweet     &lt;a&gt;THE BEST OF THE BEST!&lt;/a&gt;     &lt;a&gt;~INCREDIBLE LIPS&lt;/a&gt; ~  100% TRULY Amazing EXPERIENCE!~      NEVER RUSHED! WILL EXCEED ALL YOUR EXPECTATIONS       Glendal, Burbank, Downtown &amp;amp; ANYWHERE in LA  &lt;a&gt;Phone: 424-374-9751 &lt;/a&gt;      OpenMind &amp;amp; MORE     </t>
   </si>
   <si>
     <t>❌⭕❌⭕❌⭕ 3 COLLEGE Babes ❌⭕❌⭕❌⭕ Open Till Late ❌⭕❌⭕❌⭕ SEXY FUN ❌⭕❌⭕❌⭕ LATINA Mixed Asian ❌⭕❌⭕❌⭕ - 21</t>
@@ -926,7 +929,7 @@
     <t>2548955</t>
   </si>
   <si>
-    <t>Hi I'm Gia. A massage session with me will have you in pure bliss!     &lt;b&gt;Outcall Only (I come to you) 160/hr&lt;/b&gt;    Gia  8l8-254-8955  Outcall</t>
+    <t>Hi I'm Gia. A massage session with me will have you in pure bliss!      Outcall Only (I come to you) 160/hr     Gia  8l8-254-8955  Outcall</t>
   </si>
   <si>
     <t>Treat Yourself to a Blissful Massage</t>
@@ -941,7 +944,7 @@
     <t>2133826699</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt; 💥💥💥 滿足( man zu)spa💥💥💥 💖 💖 Happy relax time : 11:00am~11:00pm &lt;a&gt; ⭐Call ☞ ☎: 213-382-6699 ⭐&lt;/a&gt; &lt;/b&gt;</t>
+    <t xml:space="preserve">   💥💥💥 滿足( man zu)spa💥💥💥 💖 💖 Happy relax time : 11:00am~11:00pm &lt;a&gt; ⭐Call ☞ ☎: 213-382-6699 ⭐&lt;/a&gt;  </t>
   </si>
   <si>
     <t>💎⬛️🛄◥◣◥◣◥◣◥◣◥◣🛄⬛️ ASIAN DOLL HOUSE... ⬛️🛄🔵🛄⬛️EVERY MAN`S FANTASY ⬛️🛄◥◣◥◣◥◣◥◣🛄 KOREAN TOWN ⬛</t>
@@ -959,7 +962,7 @@
     <t>3106034 3109219848</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;div&gt; &lt;div&gt; &lt;table&gt; &lt;tr&gt; &lt;th&gt; &lt;div style="background:url(http://dl4.glitter-graphics.net/pub/3106/3106034k21a2gpbeb.gif); padding:30px;"&gt; &lt;div style="padding:20px; background:url(http://dl.glitter-graphics.net/pub/966/966791jqique1gpi.gif); margin:auto; text-align:center;"&gt; &lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/c.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/n.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/f.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/t.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/p.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/a.gif"/&gt;&lt;/a&gt; &lt;img border="0" height="15" src="http://dl10.glitter-graphics.net/pub/619/619380a8c7yo5al4.gif" width="430"/&gt;&lt;img border="0" height="15" src="http://dl10.glitter-graphics.net/pub/619/619380a8c7yo5al4.gif" width="430"/&gt;&lt;img border="0" height="15" src="http://dl10.glitter-graphics.net/pub/619/619380a8c7yo5al4.gif" width="430"/&gt; &lt;img src="http://asianmassagefl.net/upload/2017-08/05/19f63a0a29557e26bccc5b2db318c90a.gif" style="max-width:100%;"/&gt; &lt;p style="font-size:56px; font-weight:bold; text-shadow:5px 5px 10px red; line-height:56px;"&gt;310-921-9848&lt;/p&gt; &lt;h1 style="color:#ffc600; font-size:32px; margin-bottom:15px;"&gt; New Sweet Asian Staff will serve you with first class professional massage.&lt;/h1&gt; &lt;h1 style="color:red; font-size:32px; margin-bottom:15px;"&gt;A friendly and professional therapist massages your cares away. We have private, clean rooms for your comfort. Soothe those spots that hold the tensions of your life, while improving the body's resistance to cold and illness. Deep tissue Swedish private room ！romantic music ！ Hot Stone ! special Four hands !&lt;/h1&gt; &lt;h1 style="color:#63F; font-size:32px; margin-bottom:15px;"&gt;Body Massage Hot Oil:&lt;/h1&gt; &lt;b style="color:#0C0; font-size:30px; line-height:50px;"&gt;30mins/$30&lt;/b&gt; &lt;b style="color:#0C0; font-size:30px; line-height:50px;"&gt;60mins/$40&lt;/b&gt; &lt;b style="color:#0C0; font-size:30px; line-height:50px;"&gt;90mins/$60&lt;/b&gt; &lt;h1 style="color:#63F; font-size:32px; margin-bottom:15px;"&gt;Foot Massage:&lt;/h1&gt; &lt;b style="color:#0C0; font-size:30px; line-height:50px;"&gt;60mins/$20&lt;/b&gt; &lt;h1 style="color:#63F; font-size:32px; margin-bottom:15px;"&gt;Combo Massage:&lt;/h1&gt; &lt;b style="color:#0C0; font-size:30px; line-height:50px;"&gt;30min body + 30min foot = $35&lt;/b&gt; &lt;h1 style="color:#63F; font-size:32px; margin-bottom:15px;"&gt;Hot Stone Free&lt;/h1&gt; &lt;h2 style=" color:#09F; font-size:36px; line-height:36px;"&gt;Address: 17258 Hawthorne Blvd.Torrance,CA 90504&lt;/h2&gt; &lt;h2 style="color:#f00; font-size:36px; line-height:36px;"&gt;OPEN every day 10:00am-10:00pm&lt;/h2&gt; &lt;img src="http://asianmassagefl.net/upload/2017-10/01/3513a66a0e7f292414ebf897fda3c2a8.jpg" style="max-width:100%;"/&gt; &lt;/div&gt; &lt;/div&gt; &lt;/th&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/div&gt; &lt;/div&gt; </t>
+    <t xml:space="preserve"> &lt;div&gt; &lt;div&gt; &lt;table&gt; &lt;tr&gt; &lt;th&gt; &lt;div style="background:url(http://dl4.glitter-graphics.net/pub/3106/3106034k21a2gpbeb.gif); padding:30px;"&gt; &lt;div style="padding:20px; background:url(http://dl.glitter-graphics.net/pub/966/966791jqique1gpi.gif); margin:auto; text-align:center;"&gt; &lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/c.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/n.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/f.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/t.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/p.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/disco/a.gif"/&gt;&lt;/a&gt; &lt;img border="0" height="15" src="http://dl10.glitter-graphics.net/pub/619/619380a8c7yo5al4.gif" width="430"/&gt;&lt;img border="0" height="15" src="http://dl10.glitter-graphics.net/pub/619/619380a8c7yo5al4.gif" width="430"/&gt;&lt;img border="0" height="15" src="http://dl10.glitter-graphics.net/pub/619/619380a8c7yo5al4.gif" width="430"/&gt; &lt;img src="http://asianmassagefl.net/upload/2017-08/05/19f63a0a29557e26bccc5b2db318c90a.gif" style="max-width:100%;"/&gt; &lt;p style="font-size:56px; font-weight:bold; text-shadow:5px 5px 10px red; line-height:56px;"&gt;310-921-9848&lt;/p&gt; &lt;h1 style="color:#ffc600; font-size:32px; margin-bottom:15px;"&gt; New Sweet Asian Staff will serve you with first class professional massage.&lt;/h1&gt; &lt;h1 style="color:red; font-size:32px; margin-bottom:15px;"&gt;A friendly and professional therapist massages your cares away. We have private, clean rooms for your comfort. Soothe those spots that hold the tensions of your life, while improving the body's resistance to cold and illness. Deep tissue Swedish private room ！romantic music ！ Hot Stone ! special Four hands !&lt;/h1&gt; &lt;h1 style="color:#63F; font-size:32px; margin-bottom:15px;"&gt;Body Massage Hot Oil:&lt;/h1&gt; &lt;b style="color:#0C0; font-size:30px; line-height:50px;"&gt;30mins/$30  &lt;b style="color:#0C0; font-size:30px; line-height:50px;"&gt;60mins/$40  &lt;b style="color:#0C0; font-size:30px; line-height:50px;"&gt;90mins/$60  &lt;h1 style="color:#63F; font-size:32px; margin-bottom:15px;"&gt;Foot Massage:&lt;/h1&gt; &lt;b style="color:#0C0; font-size:30px; line-height:50px;"&gt;60mins/$20  &lt;h1 style="color:#63F; font-size:32px; margin-bottom:15px;"&gt;Combo Massage:&lt;/h1&gt; &lt;b style="color:#0C0; font-size:30px; line-height:50px;"&gt;30min body + 30min foot = $35  &lt;h1 style="color:#63F; font-size:32px; margin-bottom:15px;"&gt;Hot Stone Free&lt;/h1&gt; &lt;h2 style=" color:#09F; font-size:36px; line-height:36px;"&gt;Address: 17258 Hawthorne Blvd.Torrance,CA 90504&lt;/h2&gt; &lt;h2 style="color:#f00; font-size:36px; line-height:36px;"&gt;OPEN every day 10:00am-10:00pm&lt;/h2&gt; &lt;img src="http://asianmassagefl.net/upload/2017-10/01/3513a66a0e7f292414ebf897fda3c2a8.jpg" style="max-width:100%;"/&gt; &lt;/div&gt; &lt;/div&gt; &lt;/th&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/div&gt; &lt;/div&gt; </t>
   </si>
   <si>
     <t>❤❤▃💎⎠ 💎▃❤❤Beautiful Asian Girl❤❤▃💎⎝💎▃❤310-921-9848❤ ▃▃💎⎠⎝ 💎▃▃★❤❤★1OO% BEST MASSAGE②</t>
@@ -1088,6 +1091,9 @@
     <t>Hell0 I am -:¦:-🍒genuine, and extremely DISCRETE.....    🍒🍒👍100% INDEPENDENT    bell's I am 23years old, Taiwan, 5'1" Natural, 108lbs.    🍒 sexy petite Asian girl with a Natural young beautiful face,    👍playful,kiss💕 Sexy BeLl🚗Phone    714-321-3961  In call or out call    👌🌹I can treat u to a wonderful time and fulfill your needs</t>
   </si>
   <si>
+    <t>1254</t>
+  </si>
+  <si>
     <t>♥️🌺🌺🎾Taiwan petite Bell💕🌺🎾🌺🎾🎾🌺🎾🌺100%👍Natural  🎾🌺Real🎾young🎾🌺🌺beautiful face♥️♥️♥️</t>
   </si>
   <si>
@@ -1115,7 +1121,7 @@
     <t>3238830955 0907591 1183541689</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;a&gt; 🔲 🔞🔞— JUST RELAX SPA—🔞🔞 🔲&lt;/a&gt; &lt;ol&gt; 💖Sweet soft hands to relax your body💖 💖Hot Latina &amp;amp; Sweet Asian &amp;amp; Sexy Europeans💖 &lt;/ol&gt; &lt;a&gt; 🔲 🔲 ║☎️— Tel: 323-883-0955 - CALL NOW! 🔲 🔲 ║🔴🔴— Open 7Days 9:30am –2am(Late Night) &lt;ol&gt;💝$35 Special before 11:30 AM - 1/2 hour $35 &lt;/ol&gt; 🔲 🔲 ║🔴🔴—who are looking for a "SENSATIONAL" time. &lt;/a&gt;&lt;ol&gt;★ Beautiful NEW UPSCALE International spa &lt;a&gt;Beautiful and Attractive Girls everyday !&lt;/a&gt; &lt;/ol&gt; &lt;a href="https://www.google.com/maps/place/7440+Santa+Monica+Blvd,+West+Hollywood,+CA+90046/@34.0907591,-118.3541689,17.06z/data=!4m2!3m1!1s0x80c2bed0cb5d9a01:0x40345f300ed4d421" target="_blank"&gt; 🔲 🔲 ║🔴🔴— LOCATION MAP ( CLICK )&lt;/a&gt; 🔲 🔲 ║🔴🔴— ►►► 7440 Santa Monica Blvd W. Hollywood CA 90046 &lt;a&gt;🚘🚘🚘 Shared parking lot with Fat Burger&lt;/a&gt; &lt;/b&gt;</t>
+    <t xml:space="preserve">  &lt;a&gt; 🔲 🔞🔞— JUST RELAX SPA—🔞🔞 🔲&lt;/a&gt; &lt;ol&gt; 💖Sweet soft hands to relax your body💖 💖Hot Latina &amp;amp; Sweet Asian &amp;amp; Sexy Europeans💖 &lt;/ol&gt; &lt;a&gt; 🔲 🔲 ║☎️— Tel: 323-883-0955 - CALL NOW! 🔲 🔲 ║🔴🔴— Open 7Days 9:30am –2am(Late Night) &lt;ol&gt;💝$35 Special before 11:30 AM - 1/2 hour $35 &lt;/ol&gt; 🔲 🔲 ║🔴🔴—who are looking for a "SENSATIONAL" time. &lt;/a&gt;&lt;ol&gt;★ Beautiful NEW UPSCALE International spa &lt;a&gt;Beautiful and Attractive Girls everyday !&lt;/a&gt; &lt;/ol&gt; &lt;a href="https://www.google.com/maps/place/7440+Santa+Monica+Blvd,+West+Hollywood,+CA+90046/@34.0907591,-118.3541689,17.06z/data=!4m2!3m1!1s0x80c2bed0cb5d9a01:0x40345f300ed4d421" target="_blank"&gt; 🔲 🔲 ║🔴🔴— LOCATION MAP ( CLICK )&lt;/a&gt; 🔲 🔲 ║🔴🔴— ►►► 7440 Santa Monica Blvd W. Hollywood CA 90046 &lt;a&gt;🚘🚘🚘 Shared parking lot with Fat Burger&lt;/a&gt;  </t>
   </si>
   <si>
     <t>▐ 💟▐ ▃▃▃▃▃▃▃CLICK HERE ▃▃▃▃▃▃▃▃▃▐ 💖▐ HOT BABY DOLLS▐ 💖▐ ▃▃▃▃▃▃▃▃▃▃▃▃ Latina&amp;Asian;&amp;Europeans; ▃▃▃▃▃▃▃▃</t>
@@ -1130,7 +1136,7 @@
     <t>8059960957</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;👌Hi gentlemen are you ready to play!! ╔══╗ ╚╗╔╝ i am lucy 24 years old 34D-24"-36" ╔╝ (¯`v´¯) ╚═ MaKING YoU HaPPy!!😀And EVERYTHING ★ 💯% What you see is what you get! ★ 💯% SENSUAL + EROTIC ★ 💯% REAL YOUNG &amp;amp; SEXY ASIAN ☑ Great Attitude ☑ Beautiful Face ☑ Sexy Body ☑ Clean ☑ Classy ☑ Skilled 💋 CALL or text baby 805-996-0957 My room sorry no African gentleman 👯100/ 15 min $120/HH * Cash only $160 HOUR👯 &lt;/b&gt; </t>
+    <t xml:space="preserve">  👌Hi gentlemen are you ready to play!! ╔══╗ ╚╗╔╝ i am lucy 24 years old 34D-24"-36" ╔╝ (¯`v´¯) ╚═ MaKING YoU HaPPy!!😀And EVERYTHING ★ 💯% What you see is what you get! ★ 💯% SENSUAL + EROTIC ★ 💯% REAL YOUNG &amp;amp; SEXY ASIAN ☑ Great Attitude ☑ Beautiful Face ☑ Sexy Body ☑ Clean ☑ Classy ☑ Skilled 💋 CALL or text baby 805-996-0957 My room sorry no African gentleman 👯100/ 15 min $120/HH * Cash only $160 HOUR👯   </t>
   </si>
   <si>
     <t>————— 💖✅♋✅💖 ——— 💖✅♋✅💖 ———————— ASIAN ——————— HOT ———————YOUNG ———————💖✅♋✅💖 ————————</t>
@@ -1142,7 +1148,7 @@
     <t>Downey, Downtown, Long Beach, Los Angeles, Norwalk, 🎯🎯🎯Downey/Huntington Park/South Gate</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;p&gt;&lt;b&gt; 🎆🎆🎆 DOWNY MASSAGE 🎆🎆🎆&lt;p&gt;💘💘💘YOU WONT BE DISAPPOINTED!💘💘💘&lt;p&gt; Beautiful skilled YOUNG Latina &amp;amp; Asian girls.&lt;p&gt; 💕💕 GREAT TIME GUARANTEED.💕💕💜💋💕&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/b&gt;&lt;/p&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  &lt;p&gt;  🎆🎆🎆 DOWNY MASSAGE 🎆🎆🎆&lt;p&gt;💘💘💘YOU WONT BE DISAPPOINTED!💘💘💘&lt;p&gt; Beautiful skilled YOUNG Latina &amp;amp; Asian girls.&lt;p&gt; 💕💕 GREAT TIME GUARANTEED.💕💕💜💋💕&lt;/p&gt;&lt;/p&gt;&lt;/p&gt; &lt;/p&gt; </t>
   </si>
   <si>
     <t>DOWNEY MASSAGE ▃⚫️▃🔴▃🔵▃⚫️▃🔴▃🔵 ▃▃▃▃▃▃▃▃▃▃▃▃💖Latina&amp;Asian; CLICK HERE💖▃▃▃▃▃▃▃▃▃▃▃▃ ⚫️▃🔴▃🔵▃⚫️▃🔴▃🔵▃⚫️▃</t>
@@ -1214,7 +1220,7 @@
     <t>93900492</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;font color="Blue"&gt; &lt;font size="12"&gt;&lt;h2&gt;&lt;/h2&gt;&lt;b&gt;A Massage&lt;/b&gt;&lt;/font&gt;&lt;/font&gt;</t>
+    <t xml:space="preserve"> &lt;font color="Blue"&gt; &lt;font size="12"&gt;&lt;h2&gt;&lt;/h2&gt; A Massage &lt;/font&gt;&lt;/font&gt;</t>
   </si>
   <si>
     <t>145721397</t>
@@ -1229,7 +1235,7 @@
     <t>150415772</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;u&gt;Pink One Spa&lt;/u&gt;&lt;/b&gt;   &lt;b&gt;HR $40 &lt;/b&gt;</t>
+    <t xml:space="preserve">   Pink One Spa      HR $40  </t>
   </si>
   <si>
     <t>139465172</t>
@@ -1247,7 +1253,7 @@
     <t>3103256178</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;GOLDEN SPA&lt;/b&gt;   &lt;b&gt;Call Now &lt;u&gt;310-325-6178&lt;/u&gt;&lt;/b&gt;   &lt;b&gt;1739 Pacific Coast Highway Lomita&lt;/b&gt;  Across Street from Starbucks and Carl's Jr.    Reasons to Choose US:  ✶ Largest Spa in Lomita  ✶ 7 Massage Rooms  ✶ Two Table Showers  ✶ Very Busy Spa  ✶ Very Clean and Upscale Facility  ✶ New Owner ( No really!!)  ✶ Just Renovated  ✶ Asian Girls Trained to Please  ✶ We only find and hire the best Asian Girls      We are close by:  ✶5 minutes from the 110 Freeway  ✶2 Miles from Carson  ✶3 Miles from Torrance  ✶3 Miles from Palos Verdes  ✶3 Miles from Rancho Palos Verdes  ✶2 Miles from Rolling Hills  ✶5 miles from Redondo Beach  ✶4 Miles from the 405 Freeway  ✶6 Miles from Long Beach  ✶3 Miles from San Pedro   &lt;b&gt;GOLDEN SPA&lt;/b&gt;   &lt;b&gt;Call Now &lt;u&gt;310-325-6178&lt;/u&gt;&lt;/b&gt;   &lt;b&gt;1739 Pacific Coast Highway Lomita&lt;/b&gt;  Across Street from Starbucks and Carl's Jr.  Located in the Plaza near Pacific Coast Hobbies &lt;b&gt; &lt;/b&gt;</t>
+    <t xml:space="preserve">  GOLDEN SPA     Call Now  310-325-6178      1739 Pacific Coast Highway Lomita   Across Street from Starbucks and Carl's Jr.    Reasons to Choose US:  ✶ Largest Spa in Lomita  ✶ 7 Massage Rooms  ✶ Two Table Showers  ✶ Very Busy Spa  ✶ Very Clean and Upscale Facility  ✶ New Owner ( No really!!)  ✶ Just Renovated  ✶ Asian Girls Trained to Please  ✶ We only find and hire the best Asian Girls      We are close by:  ✶5 minutes from the 110 Freeway  ✶2 Miles from Carson  ✶3 Miles from Torrance  ✶3 Miles from Palos Verdes  ✶3 Miles from Rancho Palos Verdes  ✶2 Miles from Rolling Hills  ✶5 miles from Redondo Beach  ✶4 Miles from the 405 Freeway  ✶6 Miles from Long Beach  ✶3 Miles from San Pedro    GOLDEN SPA     Call Now  310-325-6178      1739 Pacific Coast Highway Lomita   Across Street from Starbucks and Carl's Jr.  Located in the Plaza near Pacific Coast Hobbies    </t>
   </si>
   <si>
     <t>✶ LARGEST SPA in PALOS VERDES ✶ ROLLING HILLS ✶ LOMITA!! ✶ 7 Massage Rooms! ✶ Two Table Showers</t>
@@ -1286,7 +1292,7 @@
     <t>1372023 2466502 4135100 4135498 3235347734 3233780152</t>
   </si>
   <si>
-    <t xml:space="preserve">   &lt;center&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413510034.jpg"/&gt; &lt;img alt="" border="2" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413549881.jpg"/&gt; &lt;i&gt;&lt;a&gt; ❤️💚❤️💚&lt;/a&gt;————— &lt;b&gt;Llame para una cita: 323-534-7734 // 323-378-0152&lt;/b&gt;—————&lt;a&gt;❤️💚❤️💚&lt;/a&gt; &lt;a&gt;💋&lt;/a&gt;—— &lt;a&gt;&lt;b&gt;Latina nueva y dulce / New Latina Staff Everyday&lt;/b&gt;&lt;/a&gt;——&lt;a&gt;💋&lt;/a&gt; &lt;b&gt;🌺 TE ATIENDEN EN UN LUGAR LIMPIO Y DISCRETO Clean, Cozy and Discrete&lt;/b&gt; &lt;b&gt;🌺 TENEMOS APARCAMIENTO / Spacious parking space&lt;/b&gt; &lt;b&gt;🌺 RELAJAR CON NUESTRAS MANOS DE SEDA Relaxation with silky hands &lt;/b&gt; &lt;b&gt;🌺 Ayudando al estrés y la ansiedad a desaparecer Melt away your stress&lt;/b&gt; &lt;a&gt;&lt;b&gt;————— 💚 1O am ~ 8 pm —————&lt;/b&gt;&lt;/a&gt;&lt;/i&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve">   &lt;center&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413510034.jpg"/&gt; &lt;img alt="" border="2" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413549881.jpg"/&gt;  &lt;a&gt; ❤️💚❤️💚&lt;/a&gt;—————  Llame para una cita: 323-534-7734 // 323-378-0152 —————&lt;a&gt;❤️💚❤️💚&lt;/a&gt; &lt;a&gt;💋&lt;/a&gt;—— &lt;a&gt; Latina nueva y dulce / New Latina Staff Everyday &lt;/a&gt;——&lt;a&gt;💋&lt;/a&gt;  🌺 TE ATIENDEN EN UN LUGAR LIMPIO Y DISCRETO Clean, Cozy and Discrete   🌺 TENEMOS APARCAMIENTO / Spacious parking space   🌺 RELAJAR CON NUESTRAS MANOS DE SEDA Relaxation with silky hands    🌺 Ayudando al estrés y la ansiedad a desaparecer Melt away your stress  &lt;a&gt; ————— 💚 1O am ~ 8 pm ————— &lt;/a&gt; &lt;/center&gt;</t>
   </si>
   <si>
     <t>💙💛💜💙💛💜💙💛💜💙💛💜💙💛💜░░░░░░░░░ till 12:oo am TODAY 💋 New Latina Staff Everyday ░░░░░░░💙💛💜💙💛💜💙💛💜💙💛💜💙💛💜</t>
@@ -1319,6 +1325,9 @@
     <t>Hey Guys! My name is Merry.    As an Asian beauty,I would very much enjoy getting to show you a good time here.    My name is Ella. I am 21 years-old Asian girl, 34D-23-34 with 5'0" and 101 lbs.    you will never forget!    100% real pictures, I'm even better in person!    Please call me to make an appointment.    Text Only : 626-346-8168</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
     <t>NEW ARRIVED\\\\\\\\\ Open-minded \\\\\\\\\\\Asian Girl\\\\\\\\\\\\Outcall Only 626-346-8168</t>
   </si>
   <si>
@@ -1331,7 +1340,7 @@
     <t>3106730366</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;ol&gt; &lt;b&gt;🔲🍎🔲&lt;a&gt; 　HT ACUPRESSURE 　&lt;/a&gt;🔲🍎🔲&lt;ol&gt;&lt;p&gt; 🔲🌆 TEL : &lt;a&gt;310-673-0366 🌆🔲&lt;/a&gt; &lt;/p&gt;&lt;/ol&gt;&lt;p&gt;🌟 Service you will never forget about! &lt;ol&gt;&lt;p&gt;🌟 AMAZING INT. MODEL LINEUPS!!&lt;/p&gt;&lt;/ol&gt; &lt;p&gt;🌟 Beautiful Young Latina, Asian &amp;amp; Blonde Staff&lt;/p&gt;&lt;/p&gt;&lt;/b&gt;&lt;/ol&gt;</t>
+    <t xml:space="preserve"> &lt;ol&gt;  🔲🍎🔲&lt;a&gt; 　HT ACUPRESSURE 　&lt;/a&gt;🔲🍎🔲&lt;ol&gt;&lt;p&gt; 🔲🌆 TEL : &lt;a&gt;310-673-0366 🌆🔲&lt;/a&gt; &lt;/p&gt;&lt;/ol&gt;&lt;p&gt;🌟 Service you will never forget about! &lt;ol&gt;&lt;p&gt;🌟 AMAZING INT. MODEL LINEUPS!!&lt;/p&gt;&lt;/ol&gt; &lt;p&gt;🌟 Beautiful Young Latina, Asian &amp;amp; Blonde Staff&lt;/p&gt;&lt;/p&gt; &lt;/ol&gt;</t>
   </si>
   <si>
     <t>💚❤️💚❤️💚❤️💚❤️💚▬▬▬　SPECIAL TODAY　▬▬▬📕📕📕▬▬　HT▬▬ LAX #1 SPA ▬▬📕📕📕▬▬▬　SPECIAL TODAY　▬▬💚❤️💚❤️💚❤️💚❤️💚</t>
@@ -1385,6 +1394,9 @@
     <t>800 West.Carson St. Suite 23 Torrance CA 90502 parking next in-N-out behind the líquor Store nd subway we re all the Way to the end building 2nd floor. ☏(213)915-7322 ☏(213)915-1930 ★ OPEN 7 days weeks 8:00 PM TO 4:00Am ★Hey guys, are you bored? Tired from a long day of back breaking work? Pissed off by your girlfriend or wife?  Or are you feeling lonely, and just want some company?  My name is Star, and no matter what, remember that you can always relate your day's woe to me, just ring me up and give me a try! ♥  I am busty, Massage sexual private room 😚😙😚😙✨ ✨-Disfruto proveyendo compañía de lujo a los caballeros que aman experimentar un tiempo calmante, relajante, inolvidable! Venga a experimentar un tiempo de relajación y satisfacción completa ¡Masaje sexual! Siempre, discreto y respetuoso con sus necesidades! Vino y disfrutó de la hora feliz conmigo 💑🖑</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>♛🍒🍓 ♥CUTIE♥ 😍😍♥ HOT Latinas 👧👙👄👋♥ 🌹🌻♥ 8Pm to 4Am ♥ 💋▃▃💋 ♥ ☏ (213) 915-1930 💜♥💚 ▃▃ ♥ ♛♛</t>
   </si>
   <si>
@@ -1421,9 +1433,6 @@
     <t>🔴📼🔴📼📼📼📼📼📼📼📼📼📼📼📼📼🔴📼🔴 LATINA💚ASIAN💙 WHITE💜ARMENIAN 🔴 - absolutely gorgeous 🔴📼🔴📼📼📼📼📼📼📼📼📼📼📼📼📼🔴📼🔴</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>119017648</t>
   </si>
   <si>
@@ -1448,7 +1457,7 @@
     <t>3237508882 2138055662</t>
   </si>
   <si>
-    <t>💘Hey guys!!! My name is Helen.💘  💘I am 5'5", 104 lbs, 34D-24-34, 21 yrs.💘  💘💘 &lt;u&gt;Call Only : 323-750-8882 💘💘Text Only : 213-805-5662&lt;/u&gt; 💘💘</t>
+    <t>💘Hey guys!!! My name is Helen.💘  💘I am 5'5", 104 lbs, 34D-24-34, 21 yrs.💘  💘💘  Call Only : 323-750-8882 💘💘Text Only : 213-805-5662  💘💘</t>
   </si>
   <si>
     <t>⛄⛄⭕🍀🍀 SUPER HOT 🍀🍀🍀⭕⭕⭕⭕ ASIAN GIRL ⭕⭕⭕⭕⭕⭕ Best Face ⭕⭕Come To Your Place 323-750-8882 💖💖</t>
@@ -2712,16 +2721,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -2730,16 +2739,16 @@
         <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s">
         <v>23</v>
@@ -2756,10 +2765,10 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
@@ -2768,16 +2777,16 @@
         <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L25" t="s">
         <v>23</v>
@@ -2794,7 +2803,7 @@
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
@@ -2809,7 +2818,7 @@
         <v>27</v>
       </c>
       <c r="I26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J26" t="n">
         <v>2155</v>
@@ -2832,10 +2841,10 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -2844,16 +2853,16 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J27" t="s">
         <v>45</v>
       </c>
       <c r="K27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L27" t="s">
         <v>23</v>
@@ -2870,10 +2879,10 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -2882,16 +2891,16 @@
         <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J28" t="s">
         <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L28" t="s">
         <v>23</v>
@@ -2908,10 +2917,10 @@
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -2920,16 +2929,16 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L29" t="s">
         <v>23</v>
@@ -2946,10 +2955,10 @@
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -2958,16 +2967,16 @@
         <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J30" t="n">
         <v>2350</v>
       </c>
       <c r="K30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L30" t="s">
         <v>23</v>
@@ -2984,10 +2993,10 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -2996,16 +3005,16 @@
         <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L31" t="s">
         <v>23</v>
@@ -3022,10 +3031,10 @@
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -3034,16 +3043,16 @@
         <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L32" t="s">
         <v>23</v>
@@ -3060,10 +3069,10 @@
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E33" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -3072,16 +3081,16 @@
         <v>18</v>
       </c>
       <c r="H33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I33" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J33" t="n">
         <v>1801</v>
       </c>
       <c r="K33" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L33" t="s">
         <v>23</v>
@@ -3098,10 +3107,10 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F34" t="s">
         <v>17</v>
@@ -3110,16 +3119,16 @@
         <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J34" t="s">
         <v>40</v>
       </c>
       <c r="K34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L34" t="s">
         <v>23</v>
@@ -3136,10 +3145,10 @@
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
@@ -3148,16 +3157,16 @@
         <v>18</v>
       </c>
       <c r="H35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J35" t="n">
         <v>1400</v>
       </c>
       <c r="K35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L35" t="s">
         <v>23</v>
@@ -3174,10 +3183,10 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -3186,16 +3195,16 @@
         <v>18</v>
       </c>
       <c r="H36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L36" t="s">
         <v>23</v>
@@ -3212,7 +3221,7 @@
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E37" t="s">
         <v>48</v>
@@ -3227,13 +3236,13 @@
         <v>49</v>
       </c>
       <c r="I37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J37" t="s">
         <v>45</v>
       </c>
       <c r="K37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L37" t="s">
         <v>23</v>
@@ -3250,10 +3259,10 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
@@ -3263,13 +3272,13 @@
       </c>
       <c r="H38" t="s"/>
       <c r="I38" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L38" t="s">
         <v>23</v>
@@ -3286,10 +3295,10 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E39" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -3298,16 +3307,16 @@
         <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K39" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L39" t="s">
         <v>23</v>
@@ -3324,7 +3333,7 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E40" t="s">
         <v>48</v>
@@ -3339,13 +3348,13 @@
         <v>49</v>
       </c>
       <c r="I40" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J40" t="n">
         <v>2405</v>
       </c>
       <c r="K40" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L40" t="s">
         <v>23</v>
@@ -3362,28 +3371,28 @@
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E41" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F41" t="s">
         <v>135</v>
       </c>
       <c r="G41" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J41" t="n">
         <v>1837</v>
       </c>
       <c r="K41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L41" t="s">
         <v>23</v>
@@ -3400,10 +3409,10 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E42" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -3412,16 +3421,16 @@
         <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J42" t="n">
         <v>1301</v>
       </c>
       <c r="K42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L42" t="s">
         <v>23</v>
@@ -3438,26 +3447,26 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E43" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H43" t="s"/>
       <c r="I43" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J43" t="s">
         <v>45</v>
       </c>
       <c r="K43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L43" t="s">
         <v>23</v>
@@ -3474,10 +3483,10 @@
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F44" t="s">
         <v>135</v>
@@ -3486,16 +3495,16 @@
         <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J44" t="n">
         <v>2026</v>
       </c>
       <c r="K44" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L44" t="s">
         <v>23</v>
@@ -3512,10 +3521,10 @@
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -3525,13 +3534,13 @@
       </c>
       <c r="H45" t="s"/>
       <c r="I45" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J45" t="n">
         <v>1315</v>
       </c>
       <c r="K45" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L45" t="s">
         <v>23</v>
@@ -3548,10 +3557,10 @@
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E46" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
@@ -3560,16 +3569,16 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I46" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J46" t="n">
         <v>1417</v>
       </c>
       <c r="K46" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L46" t="s">
         <v>23</v>
@@ -3586,10 +3595,10 @@
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E47" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -3624,10 +3633,10 @@
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E48" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
@@ -3636,16 +3645,16 @@
         <v>18</v>
       </c>
       <c r="H48" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I48" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J48" t="n">
         <v>1610</v>
       </c>
       <c r="K48" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L48" t="s">
         <v>23</v>
@@ -3662,28 +3671,28 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E49" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H49" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I49" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J49" t="n">
         <v>1902</v>
       </c>
       <c r="K49" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L49" t="s">
         <v>23</v>
@@ -3700,10 +3709,10 @@
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E50" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
@@ -3712,16 +3721,16 @@
         <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I50" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J50" t="n">
         <v>1629</v>
       </c>
       <c r="K50" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L50" t="s">
         <v>23</v>
@@ -3738,10 +3747,10 @@
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E51" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
@@ -3750,16 +3759,16 @@
         <v>18</v>
       </c>
       <c r="H51" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I51" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J51" t="n">
         <v>1847</v>
       </c>
       <c r="K51" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L51" t="s">
         <v>23</v>
@@ -3776,10 +3785,10 @@
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
@@ -3788,16 +3797,16 @@
         <v>18</v>
       </c>
       <c r="H52" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I52" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J52" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K52" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L52" t="s">
         <v>23</v>
@@ -3814,10 +3823,10 @@
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E53" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
@@ -3826,16 +3835,16 @@
         <v>18</v>
       </c>
       <c r="H53" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I53" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J53" t="n">
         <v>1706</v>
       </c>
       <c r="K53" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L53" t="s">
         <v>23</v>
@@ -3852,10 +3861,10 @@
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E54" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -3864,16 +3873,16 @@
         <v>18</v>
       </c>
       <c r="H54" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I54" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J54" t="n">
         <v>2149</v>
       </c>
       <c r="K54" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L54" t="s">
         <v>23</v>
@@ -3890,10 +3899,10 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E55" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
@@ -3902,16 +3911,16 @@
         <v>18</v>
       </c>
       <c r="H55" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I55" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J55" t="n">
         <v>2229</v>
       </c>
       <c r="K55" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L55" t="s">
         <v>23</v>
@@ -3928,10 +3937,10 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E56" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
@@ -3940,16 +3949,16 @@
         <v>18</v>
       </c>
       <c r="H56" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I56" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J56" t="n">
         <v>2346</v>
       </c>
       <c r="K56" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L56" t="s">
         <v>23</v>
@@ -3966,10 +3975,10 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E57" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
@@ -3978,16 +3987,16 @@
         <v>18</v>
       </c>
       <c r="H57" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I57" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J57" t="n">
         <v>1644</v>
       </c>
       <c r="K57" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L57" t="s">
         <v>23</v>
@@ -4004,28 +4013,28 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E58" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I58" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J58" t="n">
         <v>1837</v>
       </c>
       <c r="K58" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L58" t="s">
         <v>23</v>
@@ -4036,16 +4045,16 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E59" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
@@ -4054,16 +4063,16 @@
         <v>18</v>
       </c>
       <c r="H59" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I59" t="s">
-        <v>319</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2237</v>
+        <v>320</v>
+      </c>
+      <c r="J59" t="s">
+        <v>63</v>
       </c>
       <c r="K59" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L59" t="s">
         <v>23</v>
@@ -4080,10 +4089,10 @@
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E60" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
@@ -4092,16 +4101,16 @@
         <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I60" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J60" t="n">
         <v>1800</v>
       </c>
       <c r="K60" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L60" t="s">
         <v>23</v>
@@ -4118,10 +4127,10 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E61" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
@@ -4131,13 +4140,13 @@
       </c>
       <c r="H61" t="s"/>
       <c r="I61" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J61" t="n">
         <v>1954</v>
       </c>
       <c r="K61" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L61" t="s">
         <v>23</v>
@@ -4154,10 +4163,10 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E62" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -4166,16 +4175,16 @@
         <v>18</v>
       </c>
       <c r="H62" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I62" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J62" t="n">
         <v>2150</v>
       </c>
       <c r="K62" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L62" t="s">
         <v>23</v>
@@ -4192,10 +4201,10 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E63" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -4204,16 +4213,16 @@
         <v>18</v>
       </c>
       <c r="H63" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I63" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J63" t="n">
         <v>2105</v>
       </c>
       <c r="K63" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L63" t="s">
         <v>23</v>
@@ -4230,10 +4239,10 @@
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E64" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
@@ -4242,16 +4251,16 @@
         <v>18</v>
       </c>
       <c r="H64" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I64" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J64" t="n">
         <v>1903</v>
       </c>
       <c r="K64" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L64" t="s">
         <v>23</v>
@@ -4268,10 +4277,10 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E65" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
@@ -4289,7 +4298,7 @@
         <v>1607</v>
       </c>
       <c r="K65" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L65" t="s">
         <v>23</v>
@@ -4306,10 +4315,10 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E66" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
@@ -4318,16 +4327,16 @@
         <v>18</v>
       </c>
       <c r="H66" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I66" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J66" t="n">
         <v>1817</v>
       </c>
       <c r="K66" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L66" t="s">
         <v>23</v>
@@ -4338,16 +4347,16 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E67" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
@@ -4356,16 +4365,16 @@
         <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I67" t="s">
-        <v>356</v>
-      </c>
-      <c r="J67" t="n">
-        <v>2354</v>
+        <v>357</v>
+      </c>
+      <c r="J67" t="s">
+        <v>358</v>
       </c>
       <c r="K67" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L67" t="s">
         <v>23</v>
@@ -4382,28 +4391,28 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E68" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
       </c>
       <c r="G68" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H68" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I68" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J68" t="n">
         <v>1831</v>
       </c>
       <c r="K68" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L68" t="s">
         <v>23</v>
@@ -4420,28 +4429,28 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E69" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H69" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="I69" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J69" t="n">
         <v>1902</v>
       </c>
       <c r="K69" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L69" t="s">
         <v>23</v>
@@ -4458,10 +4467,10 @@
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E70" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
@@ -4470,16 +4479,16 @@
         <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="I70" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="J70" t="n">
         <v>1830</v>
       </c>
       <c r="K70" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L70" t="s">
         <v>23</v>
@@ -4496,10 +4505,10 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E71" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
@@ -4509,13 +4518,13 @@
       </c>
       <c r="H71" t="s"/>
       <c r="I71" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J71" t="n">
         <v>1705</v>
       </c>
       <c r="K71" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L71" t="s">
         <v>23</v>
@@ -4532,10 +4541,10 @@
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E72" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
@@ -4544,16 +4553,16 @@
         <v>18</v>
       </c>
       <c r="H72" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I72" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="J72" t="n">
         <v>1903</v>
       </c>
       <c r="K72" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L72" t="s">
         <v>23</v>
@@ -4570,10 +4579,10 @@
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E73" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F73" t="s">
         <v>17</v>
@@ -4582,16 +4591,16 @@
         <v>18</v>
       </c>
       <c r="H73" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="I73" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="J73" t="n">
         <v>1528</v>
       </c>
       <c r="K73" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L73" t="s">
         <v>23</v>
@@ -4608,10 +4617,10 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
@@ -4620,16 +4629,16 @@
         <v>18</v>
       </c>
       <c r="H74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I74" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J74" t="n">
         <v>1603</v>
       </c>
       <c r="K74" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L74" t="s">
         <v>23</v>
@@ -4646,7 +4655,7 @@
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E75" t="s">
         <v>48</v>
@@ -4658,16 +4667,16 @@
         <v>18</v>
       </c>
       <c r="H75" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="I75" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="J75" t="n">
         <v>2003</v>
       </c>
       <c r="K75" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L75" t="s">
         <v>23</v>
@@ -4684,10 +4693,10 @@
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E76" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F76" t="s">
         <v>17</v>
@@ -4696,16 +4705,16 @@
         <v>18</v>
       </c>
       <c r="H76" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I76" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="J76" t="n">
         <v>1733</v>
       </c>
       <c r="K76" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L76" t="s">
         <v>23</v>
@@ -4722,10 +4731,10 @@
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E77" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F77" t="s">
         <v>17</v>
@@ -4735,13 +4744,13 @@
       </c>
       <c r="H77" t="s"/>
       <c r="I77" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J77" t="n">
         <v>1902</v>
       </c>
       <c r="K77" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L77" t="s">
         <v>23</v>
@@ -4758,10 +4767,10 @@
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E78" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F78" t="s">
         <v>17</v>
@@ -4773,7 +4782,7 @@
         <v>27</v>
       </c>
       <c r="I78" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J78" t="n">
         <v>1953</v>
@@ -4796,7 +4805,7 @@
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E79" t="s">
         <v>71</v>
@@ -4809,7 +4818,7 @@
       </c>
       <c r="H79" t="s"/>
       <c r="I79" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J79" t="n">
         <v>1550</v>
@@ -4832,7 +4841,7 @@
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E80" t="s">
         <v>48</v>
@@ -4847,13 +4856,13 @@
         <v>49</v>
       </c>
       <c r="I80" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J80" t="n">
         <v>1607</v>
       </c>
       <c r="K80" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L80" t="s">
         <v>23</v>
@@ -4870,10 +4879,10 @@
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E81" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F81" t="s">
         <v>17</v>
@@ -4882,16 +4891,16 @@
         <v>18</v>
       </c>
       <c r="H81" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="I81" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J81" t="n">
         <v>1706</v>
       </c>
       <c r="K81" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L81" t="s">
         <v>23</v>
@@ -4908,10 +4917,10 @@
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E82" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F82" t="s">
         <v>17</v>
@@ -4920,16 +4929,16 @@
         <v>18</v>
       </c>
       <c r="H82" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I82" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="J82" t="n">
         <v>1522</v>
       </c>
       <c r="K82" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L82" t="s">
         <v>23</v>
@@ -4946,10 +4955,10 @@
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E83" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
@@ -4959,13 +4968,13 @@
       </c>
       <c r="H83" t="s"/>
       <c r="I83" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J83" t="n">
         <v>1903</v>
       </c>
       <c r="K83" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L83" t="s">
         <v>23</v>
@@ -4982,10 +4991,10 @@
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E84" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F84" t="s">
         <v>17</v>
@@ -4994,16 +5003,16 @@
         <v>18</v>
       </c>
       <c r="H84" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="I84" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J84" t="n">
         <v>2001</v>
       </c>
       <c r="K84" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L84" t="s">
         <v>23</v>
@@ -5020,28 +5029,28 @@
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E85" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F85" t="s">
         <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H85" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I85" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J85" t="n">
         <v>2056</v>
       </c>
       <c r="K85" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L85" t="s">
         <v>23</v>
@@ -5052,16 +5061,16 @@
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E86" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F86" t="s">
         <v>17</v>
@@ -5070,16 +5079,16 @@
         <v>18</v>
       </c>
       <c r="H86" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="I86" t="s">
-        <v>433</v>
-      </c>
-      <c r="J86" t="n">
-        <v>2321</v>
+        <v>435</v>
+      </c>
+      <c r="J86" t="s">
+        <v>436</v>
       </c>
       <c r="K86" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L86" t="s">
         <v>23</v>
@@ -5096,10 +5105,10 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E87" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F87" t="s">
         <v>17</v>
@@ -5108,16 +5117,16 @@
         <v>18</v>
       </c>
       <c r="H87" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="I87" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="J87" t="n">
         <v>1808</v>
       </c>
       <c r="K87" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L87" t="s">
         <v>23</v>
@@ -5134,10 +5143,10 @@
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E88" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F88" t="s">
         <v>17</v>
@@ -5147,13 +5156,13 @@
       </c>
       <c r="H88" t="s"/>
       <c r="I88" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J88" t="n">
         <v>1606</v>
       </c>
       <c r="K88" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="L88" t="s">
         <v>23</v>
@@ -5170,10 +5179,10 @@
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E89" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F89" t="s">
         <v>17</v>
@@ -5182,16 +5191,16 @@
         <v>18</v>
       </c>
       <c r="H89" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="I89" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="J89" t="n">
         <v>1826</v>
       </c>
       <c r="K89" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L89" t="s">
         <v>23</v>
@@ -5208,10 +5217,10 @@
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E90" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F90" t="s">
         <v>17</v>
@@ -5220,16 +5229,16 @@
         <v>18</v>
       </c>
       <c r="H90" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="I90" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="J90" t="n">
         <v>1555</v>
       </c>
       <c r="K90" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="L90" t="s">
         <v>23</v>
@@ -5240,34 +5249,34 @@
         <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E91" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F91" t="s">
         <v>17</v>
       </c>
       <c r="G91" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H91" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="I91" t="s">
-        <v>455</v>
-      </c>
-      <c r="J91" t="n">
-        <v>2350</v>
+        <v>458</v>
+      </c>
+      <c r="J91" t="s">
+        <v>459</v>
       </c>
       <c r="K91" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="L91" t="s">
         <v>23</v>
@@ -5284,10 +5293,10 @@
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E92" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F92" t="s">
         <v>17</v>
@@ -5296,16 +5305,16 @@
         <v>18</v>
       </c>
       <c r="H92" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="I92" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="J92" t="n">
         <v>2312</v>
       </c>
       <c r="K92" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="L92" t="s">
         <v>23</v>
@@ -5322,10 +5331,10 @@
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E93" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
@@ -5334,16 +5343,16 @@
         <v>18</v>
       </c>
       <c r="H93" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="I93" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="J93" t="n">
         <v>2021</v>
       </c>
       <c r="K93" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L93" t="s">
         <v>23</v>
@@ -5360,10 +5369,10 @@
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E94" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
@@ -5373,13 +5382,13 @@
       </c>
       <c r="H94" t="s"/>
       <c r="I94" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J94" t="n">
         <v>1507</v>
       </c>
       <c r="K94" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="L94" t="s">
         <v>23</v>
@@ -5390,16 +5399,16 @@
         <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>468</v>
+        <v>144</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E95" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
@@ -5408,16 +5417,16 @@
         <v>18</v>
       </c>
       <c r="H95" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="I95" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="J95" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K95" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="L95" t="s">
         <v>23</v>
@@ -5434,10 +5443,10 @@
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E96" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
@@ -5446,16 +5455,16 @@
         <v>18</v>
       </c>
       <c r="H96" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="I96" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J96" t="n">
         <v>1800</v>
       </c>
       <c r="K96" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="L96" t="s">
         <v>23</v>
@@ -5472,10 +5481,10 @@
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E97" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F97" t="s">
         <v>17</v>
@@ -5484,16 +5493,16 @@
         <v>18</v>
       </c>
       <c r="H97" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I97" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="J97" t="n">
         <v>1811</v>
       </c>
       <c r="K97" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="L97" t="s">
         <v>23</v>
@@ -5510,10 +5519,10 @@
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E98" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="F98" t="s">
         <v>17</v>
@@ -5522,16 +5531,16 @@
         <v>18</v>
       </c>
       <c r="H98" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="I98" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="J98" t="n">
         <v>2209</v>
       </c>
       <c r="K98" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="L98" t="s">
         <v>23</v>
